--- a/biology/Médecine/Système_d'information_sur_les_matières_dangereuses_utilisées_au_travail/Système_d'information_sur_les_matières_dangereuses_utilisées_au_travail.xlsx
+++ b/biology/Médecine/Système_d'information_sur_les_matières_dangereuses_utilisées_au_travail/Système_d'information_sur_les_matières_dangereuses_utilisées_au_travail.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Syst%C3%A8me_d%27information_sur_les_mati%C3%A8res_dangereuses_utilis%C3%A9es_au_travail</t>
+          <t>Système_d'information_sur_les_matières_dangereuses_utilisées_au_travail</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Système d'information sur les matières dangereuses utilisées au travail (SIMDUT ; en anglais, Workplace Hazardous Materials Information System : WHMIS) est officiellement en vigueur depuis le 31 octobre 1988 au Canada. Cette norme nationale de communication s'applique à tous les lieux de travail. Il est surtout connu par ses symboles de mise en garde contre les effets nocifs potentiels de produits se trouvant dans des contenants. Le système fait aussi la promotion de la formation des travailleurs[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Système d'information sur les matières dangereuses utilisées au travail (SIMDUT ; en anglais, Workplace Hazardous Materials Information System : WHMIS) est officiellement en vigueur depuis le 31 octobre 1988 au Canada. Cette norme nationale de communication s'applique à tous les lieux de travail. Il est surtout connu par ses symboles de mise en garde contre les effets nocifs potentiels de produits se trouvant dans des contenants. Le système fait aussi la promotion de la formation des travailleurs.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Syst%C3%A8me_d%27information_sur_les_mati%C3%A8res_dangereuses_utilis%C3%A9es_au_travail</t>
+          <t>Système_d'information_sur_les_matières_dangereuses_utilisées_au_travail</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,18 +523,20 @@
           <t>Liste des symboles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2013, le SIMDUT définit huit symboles[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2013, le SIMDUT définit huit symboles :
 	Symboles SIMDUT
-			Catégorie A, gaz comprimé[2]
-			Catégorie B, Matières inflammables et combustibles[2]
-			Catégorie C, Matières comburantes[2]
-			Catégorie D - Matières toxiques et infectieuses, 1. Matières ayant des effets toxiques immédiats et graves[2]
-			Catégorie D - Matières toxiques et infectieuses, 2. Matières ayant d'autres effets toxiques[2]
-			Catégorie D - Matières toxiques et infectieuses, 3. Matières infectieuses[2]
-			Catégorie E - Matières corrosives[2]
-			Catégorie F - Matières dangereusement réactives[2]
+			Catégorie A, gaz comprimé
+			Catégorie B, Matières inflammables et combustibles
+			Catégorie C, Matières comburantes
+			Catégorie D - Matières toxiques et infectieuses, 1. Matières ayant des effets toxiques immédiats et graves
+			Catégorie D - Matières toxiques et infectieuses, 2. Matières ayant d'autres effets toxiques
+			Catégorie D - Matières toxiques et infectieuses, 3. Matières infectieuses
+			Catégorie E - Matières corrosives
+			Catégorie F - Matières dangereusement réactives
 </t>
         </is>
       </c>
